--- a/hasil/xls/sampel208052017.xlsx
+++ b/hasil/xls/sampel208052017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Skripsi Baru\hasil\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Skripsi Baru\Skripsi\hasil\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="sampel208052017" sheetId="1" r:id="rId1"/>
@@ -574,6 +574,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Waktu best_guess pada setiap hari</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1884,6 +1908,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Waktu masing-masing model dalam seminggu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4060,6 +4108,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Senin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4670,6 +4737,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Selasa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5199,6 +5285,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rabu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5809,6 +5914,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kamis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6419,6 +6543,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jumat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -7029,6 +7172,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sabtu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -7639,6 +7801,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -9911,7 +10092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -9946,7 +10127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10133,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
